--- a/hw3/driver2.xlsx
+++ b/hw3/driver2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="14600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="14580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -135,7 +137,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0425909894594398"/>
+          <c:y val="0.0112009603713539"/>
+          <c:w val="0.928762469296871"/>
+          <c:h val="0.813069772886498"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -156,10 +168,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$153</c:f>
+              <c:f>Sheet1!$A$2:$A$152</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="152"/>
+                <c:ptCount val="151"/>
                 <c:pt idx="0">
                   <c:v>5000.0</c:v>
                 </c:pt>
@@ -635,267 +647,267 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$153</c:f>
+              <c:f>Sheet1!$B$2:$B$152</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="152"/>
+                <c:ptCount val="151"/>
                 <c:pt idx="0">
-                  <c:v>0.0005259514</c:v>
+                  <c:v>0.1189899</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.894371E-5</c:v>
+                  <c:v>0.001959085</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.914139E-5</c:v>
+                  <c:v>0.004792929</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.605553E-5</c:v>
+                  <c:v>0.001482964</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.416176E-5</c:v>
+                  <c:v>0.004659891</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.102158E-5</c:v>
+                  <c:v>0.002630949</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.722046E-5</c:v>
+                  <c:v>0.002144098</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.506111E-5</c:v>
+                  <c:v>0.001362085</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.506111E-5</c:v>
+                  <c:v>0.001529932</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.577637E-5</c:v>
+                  <c:v>0.001926184</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.696846E-5</c:v>
+                  <c:v>0.0001430511</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.792213E-5</c:v>
+                  <c:v>0.002826929</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.792213E-5</c:v>
+                  <c:v>0.002722025</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.506111E-5</c:v>
+                  <c:v>0.002413988</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.295609E-5</c:v>
+                  <c:v>0.007503986</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.102158E-5</c:v>
+                  <c:v>0.0006711483</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.102158E-5</c:v>
+                  <c:v>0.004991055</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.412102E-5</c:v>
+                  <c:v>0.00218606</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.887581E-5</c:v>
+                  <c:v>0.001698971</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.412102E-5</c:v>
+                  <c:v>0.00148201</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.00679E-5</c:v>
+                  <c:v>0.0007560253</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.793571E-5</c:v>
+                  <c:v>0.001569033</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.507469E-5</c:v>
+                  <c:v>0.001185894</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.197525E-5</c:v>
+                  <c:v>0.001672029</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.817413E-5</c:v>
+                  <c:v>0.0009009838</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5.38826E-5</c:v>
+                  <c:v>0.001830101</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6.29425E-5</c:v>
+                  <c:v>0.007339001</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5.888939E-5</c:v>
+                  <c:v>0.002325058</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5.602837E-5</c:v>
+                  <c:v>0.003329039</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7.486343E-5</c:v>
+                  <c:v>0.008311987</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7.891655E-5</c:v>
+                  <c:v>0.01022506</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>6.604195E-5</c:v>
+                  <c:v>0.002175093</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>6.318092E-5</c:v>
+                  <c:v>0.001381159</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5.912781E-5</c:v>
+                  <c:v>0.0007779598</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>6.508827E-5</c:v>
+                  <c:v>0.0007519722</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>6.103516E-5</c:v>
+                  <c:v>0.001436949</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>6.604195E-5</c:v>
+                  <c:v>0.001237154</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>6.580353E-5</c:v>
+                  <c:v>0.004794836</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>6.699562E-5</c:v>
+                  <c:v>0.001383066</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>6.818771E-5</c:v>
+                  <c:v>0.001406193</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>6.508827E-5</c:v>
+                  <c:v>0.008970022</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>6.890297E-5</c:v>
+                  <c:v>0.001549959</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>6.890297E-5</c:v>
+                  <c:v>0.001368999</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>7.009506E-5</c:v>
+                  <c:v>0.0007109642</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>7.104874E-5</c:v>
+                  <c:v>0.00148797</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>6.699562E-5</c:v>
+                  <c:v>0.00156498</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>7.295609E-5</c:v>
+                  <c:v>0.001329184</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>7.390976E-5</c:v>
+                  <c:v>0.001204014</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>7.414818E-5</c:v>
+                  <c:v>0.0006639957</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>7.510185E-5</c:v>
+                  <c:v>0.002382994</c:v>
                 </c:pt>
                 <c:pt idx="50">
+                  <c:v>0.003844976</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.001356125</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.000756979</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.001340151</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.001484156</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.0008699894</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.0002038479</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.0003941059</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.0001661777</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.0001320839</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.0001008511</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.0001289845</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.0002839565</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.0001962185</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.0001330376</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.0001320839</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.0001587868</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.0001211166</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.0001239777</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.0001101494</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.0002579689</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.0001330376</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.0001130104</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.0001089573</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>9.608269E-5</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>9.608269E-5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>9.012222E-5</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>9.417534E-5</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.0001571178</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>9.799004E-5</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>9.202957E-5</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.0001029968</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>9.799004E-5</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.0001440048</c:v>
+                </c:pt>
+                <c:pt idx="84">
                   <c:v>0.0001020432</c:v>
                 </c:pt>
-                <c:pt idx="51">
-                  <c:v>7.581711E-5</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>7.70092E-5</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>7.796288E-5</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>7.390976E-5</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>7.891655E-5</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>7.891655E-5</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>8.106232E-5</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>8.296967E-5</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>7.796288E-5</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>8.296967E-5</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>8.296967E-5</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>8.320808E-5</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>8.511543E-5</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>8.201599E-5</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>8.583069E-5</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>8.392334E-5</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>9.322166E-5</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>8.893013E-5</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>8.487701E-5</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>8.98838E-5</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>8.678436E-5</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>9.584427E-5</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>9.202957E-5</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>8.893013E-5</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>9.393692E-5</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>8.98838E-5</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>9.489059E-5</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.000166893</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>9.179115E-5</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>9.608269E-5</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>9.417534E-5</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>9.894371E-5</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>9.894371E-5</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.0001010895</c:v>
-                </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.0001010895</c:v>
+                  <c:v>9.703636E-5</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>0.0001010895</c:v>
@@ -904,193 +916,193 @@
                   <c:v>0.0001020432</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.0001018047</c:v>
+                  <c:v>0.0001080036</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>0.0001029968</c:v>
                 </c:pt>
                 <c:pt idx="90">
+                  <c:v>9.989738E-5</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.0001299381</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.0001070499</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.0001130104</c:v>
+                </c:pt>
+                <c:pt idx="94">
                   <c:v>0.0001041889</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.0001010895</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.0001060963</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.0001060963</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.0001060963</c:v>
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>0.0001080036</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.0001049042</c:v>
+                  <c:v>0.0001399517</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.000109911</c:v>
+                  <c:v>0.0001580715</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.0001120567</c:v>
+                  <c:v>0.0001370907</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.000109911</c:v>
+                  <c:v>0.0003788471</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.0001068115</c:v>
+                  <c:v>0.000193119</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.0001149178</c:v>
+                  <c:v>0.0003991127</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.000112772</c:v>
+                  <c:v>0.0003159046</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.0001139641</c:v>
+                  <c:v>0.0001990795</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.0001149178</c:v>
+                  <c:v>0.0003938675</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.0001111031</c:v>
+                  <c:v>0.000783205</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.0001170635</c:v>
+                  <c:v>0.000385046</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.0001170635</c:v>
+                  <c:v>0.0002391338</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.0001177788</c:v>
+                  <c:v>0.0003669262</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.0001180172</c:v>
+                  <c:v>0.0001730919</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0.0001671314</c:v>
+                  <c:v>0.0001471043</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.0001189709</c:v>
+                  <c:v>0.0002248287</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0.0001208782</c:v>
+                  <c:v>0.0001349449</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0.0002138615</c:v>
+                  <c:v>0.0002160072</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0.0002698898</c:v>
+                  <c:v>0.0002379417</c:v>
                 </c:pt>
                 <c:pt idx="115">
+                  <c:v>0.0002100468</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.0001308918</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.0001308918</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.0001320839</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.0002069473</c:v>
+                </c:pt>
+                <c:pt idx="120">
                   <c:v>0.0002110004</c:v>
                 </c:pt>
-                <c:pt idx="116">
-                  <c:v>0.0001268387</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>0.0001189709</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>0.0001301765</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>0.0001909733</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>0.0001940727</c:v>
-                </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.0001239777</c:v>
+                  <c:v>0.0001318455</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0.0001211166</c:v>
+                  <c:v>0.0001270771</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0.0001261234</c:v>
+                  <c:v>0.0001311302</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0.0001311302</c:v>
+                  <c:v>0.0001380444</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>0.0002000332</c:v>
+                  <c:v>0.0002100468</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0.00020504</c:v>
+                  <c:v>0.0002911091</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0.0001270771</c:v>
+                  <c:v>0.0002360344</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>0.0001311302</c:v>
+                  <c:v>0.0002160072</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0.0001399517</c:v>
+                  <c:v>0.0002369881</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0.000234127</c:v>
+                  <c:v>0.0007741451</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>0.0002019405</c:v>
+                  <c:v>0.0004889965</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>0.0001289845</c:v>
+                  <c:v>0.0002400875</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>0.0001330376</c:v>
+                  <c:v>0.0003170967</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>0.0001349449</c:v>
+                  <c:v>0.0001990795</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>0.0002307892</c:v>
+                  <c:v>0.0004060268</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>0.0002069473</c:v>
+                  <c:v>0.0008251667</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>0.0001318455</c:v>
+                  <c:v>0.0006029606</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>0.0002088547</c:v>
+                  <c:v>0.0003359318</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>0.0002229214</c:v>
+                  <c:v>0.0002758503</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>0.0002949238</c:v>
+                  <c:v>0.0004549026</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>0.0002639294</c:v>
+                  <c:v>0.0003209114</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>0.0001530647</c:v>
+                  <c:v>0.006340027</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>0.0001540184</c:v>
+                  <c:v>0.0004189014</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>0.0001649857</c:v>
+                  <c:v>0.0003569126</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>0.0002849102</c:v>
+                  <c:v>0.0005011559</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0.0002610683</c:v>
+                  <c:v>0.000510931</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>0.0002720356</c:v>
+                  <c:v>0.0009078979</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>0.0003261566</c:v>
+                  <c:v>0.0009968281</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>0.0002250671</c:v>
+                  <c:v>0.0005888939</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>0.0005750656</c:v>
+                  <c:v>0.0005068779</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1106,11 +1118,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="310091984"/>
-        <c:axId val="310100320"/>
+        <c:axId val="614897488"/>
+        <c:axId val="614899808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="310091984"/>
+        <c:axId val="614897488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1152,7 +1164,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="310100320"/>
+        <c:crossAx val="614899808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1160,7 +1172,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="310100320"/>
+        <c:axId val="614899808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1210,7 +1222,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="310091984"/>
+        <c:crossAx val="614897488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1852,19 +1864,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>12546</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>3137</xdr:rowOff>
+      <xdr:colOff>15301</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>15301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>-1</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>183614</xdr:rowOff>
+      <xdr:colOff>810964</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>76507</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2147,8 +2159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B152"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A4" zoomScale="83" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="83" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2165,695 +2177,695 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>5000</v>
       </c>
       <c r="B2" s="2">
-        <v>5.2595140000000001E-4</v>
+        <v>0.1189899</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>5100</v>
       </c>
       <c r="B3" s="2">
-        <v>9.894371E-5</v>
+        <v>1.9590850000000002E-3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>5200</v>
       </c>
       <c r="B4" s="2">
-        <v>6.9141389999999994E-5</v>
+        <v>4.7929289999999996E-3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>5300</v>
       </c>
       <c r="B5" s="2">
-        <v>7.6055529999999999E-5</v>
+        <v>1.482964E-3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>5400</v>
       </c>
       <c r="B6" s="2">
-        <v>8.4161759999999995E-5</v>
+        <v>4.6598910000000002E-3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>5500</v>
       </c>
       <c r="B7" s="2">
-        <v>5.1021579999999998E-5</v>
+        <v>2.630949E-3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>5600</v>
       </c>
       <c r="B8" s="2">
-        <v>5.7220460000000003E-5</v>
+        <v>2.1440980000000001E-3</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>5700</v>
       </c>
       <c r="B9" s="2">
-        <v>4.5061110000000002E-5</v>
+        <v>1.3620850000000001E-3</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>5800</v>
       </c>
       <c r="B10" s="2">
-        <v>4.5061110000000002E-5</v>
+        <v>1.5299319999999999E-3</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>5900</v>
       </c>
       <c r="B11" s="2">
-        <v>4.5776370000000002E-5</v>
+        <v>1.9261840000000001E-3</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>6000</v>
       </c>
       <c r="B12" s="2">
-        <v>4.696846E-5</v>
+        <v>1.430511E-4</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>6100</v>
       </c>
       <c r="B13" s="2">
-        <v>4.7922130000000002E-5</v>
+        <v>2.8269290000000002E-3</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>6200</v>
       </c>
       <c r="B14" s="2">
-        <v>4.7922130000000002E-5</v>
+        <v>2.7220249999999999E-3</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>6300</v>
       </c>
       <c r="B15" s="2">
-        <v>4.5061110000000002E-5</v>
+        <v>2.4139880000000002E-3</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>6400</v>
       </c>
       <c r="B16" s="2">
-        <v>7.2956090000000004E-5</v>
+        <v>7.5039859999999998E-3</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>6500</v>
       </c>
       <c r="B17" s="2">
-        <v>5.1021579999999998E-5</v>
+        <v>6.7114829999999999E-4</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>6600</v>
       </c>
       <c r="B18" s="2">
-        <v>5.1021579999999998E-5</v>
+        <v>4.9910550000000003E-3</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>6700</v>
       </c>
       <c r="B19" s="2">
-        <v>5.412102E-5</v>
+        <v>2.1860600000000001E-3</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="A20" s="1">
         <v>6800</v>
       </c>
       <c r="B20" s="2">
-        <v>4.8875809999999998E-5</v>
+        <v>1.6989710000000001E-3</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>6900</v>
       </c>
       <c r="B21" s="2">
-        <v>5.412102E-5</v>
+        <v>1.48201E-3</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22">
+      <c r="A22" s="1">
         <v>7000</v>
       </c>
       <c r="B22" s="2">
-        <v>5.0067900000000002E-5</v>
+        <v>7.5602530000000001E-4</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23">
+      <c r="A23" s="1">
         <v>7100</v>
       </c>
       <c r="B23" s="2">
-        <v>5.7935710000000002E-5</v>
+        <v>1.5690330000000001E-3</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24">
+      <c r="A24" s="1">
         <v>7200</v>
       </c>
       <c r="B24" s="2">
-        <v>5.5074690000000002E-5</v>
+        <v>1.1858940000000001E-3</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25">
+      <c r="A25" s="1">
         <v>7300</v>
       </c>
       <c r="B25" s="2">
-        <v>5.197525E-5</v>
+        <v>1.672029E-3</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26">
+      <c r="A26" s="1">
         <v>7400</v>
       </c>
       <c r="B26" s="2">
-        <v>5.8174129999999998E-5</v>
+        <v>9.009838E-4</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27">
+      <c r="A27" s="1">
         <v>7500</v>
       </c>
       <c r="B27" s="2">
-        <v>5.3882599999999998E-5</v>
+        <v>1.830101E-3</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28">
+      <c r="A28" s="1">
         <v>7600</v>
       </c>
       <c r="B28" s="2">
-        <v>6.2942500000000003E-5</v>
+        <v>7.3390010000000004E-3</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29">
+      <c r="A29" s="1">
         <v>7700</v>
       </c>
       <c r="B29" s="2">
-        <v>5.8889389999999998E-5</v>
+        <v>2.3250580000000001E-3</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30">
+      <c r="A30" s="1">
         <v>7800</v>
       </c>
       <c r="B30" s="2">
-        <v>5.6028369999999998E-5</v>
+        <v>3.3290389999999998E-3</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31">
+      <c r="A31" s="1">
         <v>7900</v>
       </c>
       <c r="B31" s="2">
-        <v>7.4863429999999994E-5</v>
+        <v>8.3119869999999998E-3</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32">
+      <c r="A32" s="1">
         <v>8000</v>
       </c>
       <c r="B32" s="2">
-        <v>7.8916549999999999E-5</v>
+        <v>1.0225059999999999E-2</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33">
+      <c r="A33" s="1">
         <v>8100</v>
       </c>
       <c r="B33" s="2">
-        <v>6.6041949999999999E-5</v>
+        <v>2.1750929999999999E-3</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34">
+      <c r="A34" s="1">
         <v>8200</v>
       </c>
       <c r="B34" s="2">
-        <v>6.3180919999999998E-5</v>
+        <v>1.3811590000000001E-3</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35">
+      <c r="A35" s="1">
         <v>8300</v>
       </c>
       <c r="B35" s="2">
-        <v>5.9127810000000001E-5</v>
+        <v>7.779598E-4</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36">
+      <c r="A36" s="1">
         <v>8400</v>
       </c>
       <c r="B36" s="2">
-        <v>6.5088270000000003E-5</v>
+        <v>7.5197220000000002E-4</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37">
+      <c r="A37" s="1">
         <v>8500</v>
       </c>
       <c r="B37" s="2">
-        <v>6.1035159999999999E-5</v>
+        <v>1.4369490000000001E-3</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38">
+      <c r="A38" s="1">
         <v>8600</v>
       </c>
       <c r="B38" s="2">
-        <v>6.6041949999999999E-5</v>
+        <v>1.2371540000000001E-3</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39">
+      <c r="A39" s="1">
         <v>8700</v>
       </c>
       <c r="B39" s="2">
-        <v>6.5803530000000003E-5</v>
+        <v>4.7948360000000002E-3</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40">
+      <c r="A40" s="1">
         <v>8800</v>
       </c>
       <c r="B40" s="2">
-        <v>6.6995619999999994E-5</v>
+        <v>1.3830660000000001E-3</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41">
+      <c r="A41" s="1">
         <v>8900</v>
       </c>
       <c r="B41" s="2">
-        <v>6.8187709999999998E-5</v>
+        <v>1.406193E-3</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42">
+      <c r="A42" s="1">
         <v>9000</v>
       </c>
       <c r="B42" s="2">
-        <v>6.5088270000000003E-5</v>
+        <v>8.9700219999999994E-3</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43">
+      <c r="A43" s="1">
         <v>9100</v>
       </c>
       <c r="B43" s="2">
-        <v>6.8902969999999999E-5</v>
+        <v>1.5499590000000001E-3</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44">
+      <c r="A44" s="1">
         <v>9200</v>
       </c>
       <c r="B44" s="2">
-        <v>6.8902969999999999E-5</v>
+        <v>1.3689990000000001E-3</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45">
+      <c r="A45" s="1">
         <v>9300</v>
       </c>
       <c r="B45" s="2">
-        <v>7.0095060000000003E-5</v>
+        <v>7.1096419999999998E-4</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46">
+      <c r="A46" s="1">
         <v>9400</v>
       </c>
       <c r="B46" s="2">
-        <v>7.1048739999999999E-5</v>
+        <v>1.4879699999999999E-3</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47">
+      <c r="A47" s="1">
         <v>9500</v>
       </c>
       <c r="B47" s="2">
-        <v>6.6995619999999994E-5</v>
+        <v>1.5649800000000001E-3</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48">
+      <c r="A48" s="1">
         <v>9600</v>
       </c>
       <c r="B48" s="2">
-        <v>7.2956090000000004E-5</v>
+        <v>1.329184E-3</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49">
+      <c r="A49" s="1">
         <v>9700</v>
       </c>
       <c r="B49" s="2">
-        <v>7.3909759999999999E-5</v>
+        <v>1.204014E-3</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50">
+      <c r="A50" s="1">
         <v>9800</v>
       </c>
       <c r="B50" s="2">
-        <v>7.4148179999999995E-5</v>
+        <v>6.6399570000000004E-4</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51">
+      <c r="A51" s="1">
         <v>9900</v>
       </c>
       <c r="B51" s="2">
-        <v>7.5101850000000003E-5</v>
+        <v>2.3829939999999998E-3</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52">
+      <c r="A52" s="1">
         <v>10000</v>
       </c>
       <c r="B52" s="2">
+        <v>3.8449759999999999E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>10100</v>
+      </c>
+      <c r="B53" s="2">
+        <v>1.3561249999999999E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>10200</v>
+      </c>
+      <c r="B54" s="2">
+        <v>7.5697899999999996E-4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>10300</v>
+      </c>
+      <c r="B55" s="2">
+        <v>1.3401509999999999E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>10400</v>
+      </c>
+      <c r="B56" s="2">
+        <v>1.4841559999999999E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>10500</v>
+      </c>
+      <c r="B57" s="2">
+        <v>8.6998939999999997E-4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>10600</v>
+      </c>
+      <c r="B58" s="2">
+        <v>2.0384790000000001E-4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>10700</v>
+      </c>
+      <c r="B59" s="2">
+        <v>3.9410589999999999E-4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>10800</v>
+      </c>
+      <c r="B60" s="2">
+        <v>1.6617770000000001E-4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>10900</v>
+      </c>
+      <c r="B61" s="2">
+        <v>1.320839E-4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>11000</v>
+      </c>
+      <c r="B62" s="2">
+        <v>1.0085109999999999E-4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>11100</v>
+      </c>
+      <c r="B63" s="2">
+        <v>1.2898449999999999E-4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>11200</v>
+      </c>
+      <c r="B64" s="2">
+        <v>2.8395649999999998E-4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>11300</v>
+      </c>
+      <c r="B65" s="2">
+        <v>1.9621849999999999E-4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>11400</v>
+      </c>
+      <c r="B66" s="2">
+        <v>1.3303760000000001E-4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>11500</v>
+      </c>
+      <c r="B67" s="2">
+        <v>1.320839E-4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>11600</v>
+      </c>
+      <c r="B68" s="2">
+        <v>1.5878680000000001E-4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>11700</v>
+      </c>
+      <c r="B69" s="2">
+        <v>1.211166E-4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>11800</v>
+      </c>
+      <c r="B70" s="2">
+        <v>1.2397769999999999E-4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>11900</v>
+      </c>
+      <c r="B71" s="2">
+        <v>1.1014940000000001E-4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>12000</v>
+      </c>
+      <c r="B72" s="2">
+        <v>2.579689E-4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>12100</v>
+      </c>
+      <c r="B73" s="2">
+        <v>1.3303760000000001E-4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>12200</v>
+      </c>
+      <c r="B74" s="2">
+        <v>1.130104E-4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>12300</v>
+      </c>
+      <c r="B75" s="2">
+        <v>1.089573E-4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>12400</v>
+      </c>
+      <c r="B76" s="2">
+        <v>9.608269E-5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>12500</v>
+      </c>
+      <c r="B77" s="2">
+        <v>9.608269E-5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>12600</v>
+      </c>
+      <c r="B78" s="2">
+        <v>9.0122220000000004E-5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <v>12700</v>
+      </c>
+      <c r="B79" s="2">
+        <v>9.4175339999999995E-5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <v>12800</v>
+      </c>
+      <c r="B80" s="2">
+        <v>1.571178E-4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <v>12900</v>
+      </c>
+      <c r="B81" s="2">
+        <v>9.7990040000000005E-5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <v>13000</v>
+      </c>
+      <c r="B82" s="2">
+        <v>9.2029569999999995E-5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <v>13100</v>
+      </c>
+      <c r="B83" s="2">
+        <v>1.029968E-4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <v>13200</v>
+      </c>
+      <c r="B84" s="2">
+        <v>9.7990040000000005E-5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
+        <v>13300</v>
+      </c>
+      <c r="B85" s="2">
+        <v>1.4400479999999999E-4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <v>13400</v>
+      </c>
+      <c r="B86" s="2">
         <v>1.020432E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>10100</v>
-      </c>
-      <c r="B53" s="2">
-        <v>7.5817110000000004E-5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>10200</v>
-      </c>
-      <c r="B54" s="2">
-        <v>7.7009199999999994E-5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>10300</v>
-      </c>
-      <c r="B55" s="2">
-        <v>7.7962880000000004E-5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>10400</v>
-      </c>
-      <c r="B56" s="2">
-        <v>7.3909759999999999E-5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>10500</v>
-      </c>
-      <c r="B57" s="2">
-        <v>7.8916549999999999E-5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>10600</v>
-      </c>
-      <c r="B58" s="2">
-        <v>7.8916549999999999E-5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>10700</v>
-      </c>
-      <c r="B59" s="2">
-        <v>8.1062319999999999E-5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>10800</v>
-      </c>
-      <c r="B60" s="2">
-        <v>8.2969670000000004E-5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>10900</v>
-      </c>
-      <c r="B61" s="2">
-        <v>7.7962880000000004E-5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>11000</v>
-      </c>
-      <c r="B62" s="2">
-        <v>8.2969670000000004E-5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>11100</v>
-      </c>
-      <c r="B63" s="2">
-        <v>8.2969670000000004E-5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>11200</v>
-      </c>
-      <c r="B64" s="2">
-        <v>8.3208079999999999E-5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>11300</v>
-      </c>
-      <c r="B65" s="2">
-        <v>8.5115430000000004E-5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <v>11400</v>
-      </c>
-      <c r="B66" s="2">
-        <v>8.2015989999999995E-5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>11500</v>
-      </c>
-      <c r="B67" s="2">
-        <v>8.5830690000000004E-5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>11600</v>
-      </c>
-      <c r="B68" s="2">
-        <v>8.3923339999999999E-5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <v>11700</v>
-      </c>
-      <c r="B69" s="2">
-        <v>9.3221659999999999E-5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <v>11800</v>
-      </c>
-      <c r="B70" s="2">
-        <v>8.893013E-5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <v>11900</v>
-      </c>
-      <c r="B71" s="2">
-        <v>8.4877009999999995E-5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <v>12000</v>
-      </c>
-      <c r="B72" s="2">
-        <v>8.9883799999999995E-5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <v>12100</v>
-      </c>
-      <c r="B73" s="2">
-        <v>8.6784359999999999E-5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <v>12200</v>
-      </c>
-      <c r="B74" s="2">
-        <v>9.5844270000000005E-5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <v>12300</v>
-      </c>
-      <c r="B75" s="2">
-        <v>9.2029569999999995E-5</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <v>12400</v>
-      </c>
-      <c r="B76" s="2">
-        <v>8.893013E-5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <v>12500</v>
-      </c>
-      <c r="B77" s="2">
-        <v>9.393692E-5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <v>12600</v>
-      </c>
-      <c r="B78" s="2">
-        <v>8.9883799999999995E-5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <v>12700</v>
-      </c>
-      <c r="B79" s="2">
-        <v>9.4890589999999995E-5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80">
-        <v>12800</v>
-      </c>
-      <c r="B80" s="2">
-        <v>1.6689299999999999E-4</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <v>12900</v>
-      </c>
-      <c r="B81" s="2">
-        <v>9.179115E-5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82">
-        <v>13000</v>
-      </c>
-      <c r="B82" s="2">
-        <v>9.608269E-5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83">
-        <v>13100</v>
-      </c>
-      <c r="B83" s="2">
-        <v>9.4175339999999995E-5</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <v>13200</v>
-      </c>
-      <c r="B84" s="2">
-        <v>9.894371E-5</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85">
-        <v>13300</v>
-      </c>
-      <c r="B85" s="2">
-        <v>9.894371E-5</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86">
-        <v>13400</v>
-      </c>
-      <c r="B86" s="2">
-        <v>1.010895E-4</v>
-      </c>
-    </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87">
+      <c r="A87" s="1">
         <v>13500</v>
       </c>
       <c r="B87" s="2">
-        <v>1.010895E-4</v>
+        <v>9.7036359999999995E-5</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88">
+      <c r="A88" s="1">
         <v>13600</v>
       </c>
       <c r="B88" s="2">
@@ -2861,7 +2873,7 @@
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89">
+      <c r="A89" s="1">
         <v>13700</v>
       </c>
       <c r="B89" s="2">
@@ -2869,15 +2881,15 @@
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90">
+      <c r="A90" s="1">
         <v>13800</v>
       </c>
       <c r="B90" s="2">
-        <v>1.018047E-4</v>
+        <v>1.080036E-4</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91">
+      <c r="A91" s="1">
         <v>13900</v>
       </c>
       <c r="B91" s="2">
@@ -2885,47 +2897,47 @@
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92">
+      <c r="A92" s="1">
         <v>14000</v>
       </c>
       <c r="B92" s="2">
+        <v>9.9897379999999995E-5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <v>14100</v>
+      </c>
+      <c r="B93" s="2">
+        <v>1.299381E-4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
+        <v>14200</v>
+      </c>
+      <c r="B94" s="2">
+        <v>1.0704990000000001E-4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
+        <v>14300</v>
+      </c>
+      <c r="B95" s="2">
+        <v>1.130104E-4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
+        <v>14400</v>
+      </c>
+      <c r="B96" s="2">
         <v>1.0418889999999999E-4</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93">
-        <v>14100</v>
-      </c>
-      <c r="B93" s="2">
-        <v>1.010895E-4</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94">
-        <v>14200</v>
-      </c>
-      <c r="B94" s="2">
-        <v>1.060963E-4</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95">
-        <v>14300</v>
-      </c>
-      <c r="B95" s="2">
-        <v>1.060963E-4</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96">
-        <v>14400</v>
-      </c>
-      <c r="B96" s="2">
-        <v>1.060963E-4</v>
-      </c>
-    </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97">
+      <c r="A97" s="1">
         <v>14500</v>
       </c>
       <c r="B97" s="2">
@@ -2933,443 +2945,443 @@
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98">
+      <c r="A98" s="1">
         <v>14600</v>
       </c>
       <c r="B98" s="2">
-        <v>1.049042E-4</v>
+        <v>1.399517E-4</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99">
+      <c r="A99" s="1">
         <v>14700</v>
       </c>
       <c r="B99" s="2">
-        <v>1.09911E-4</v>
+        <v>1.5807150000000001E-4</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100">
+      <c r="A100" s="1">
         <v>14800</v>
       </c>
       <c r="B100" s="2">
-        <v>1.1205669999999999E-4</v>
+        <v>1.370907E-4</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101">
+      <c r="A101" s="1">
         <v>14900</v>
       </c>
       <c r="B101" s="2">
-        <v>1.09911E-4</v>
+        <v>3.7884710000000001E-4</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102">
+      <c r="A102" s="1">
         <v>15000</v>
       </c>
       <c r="B102" s="2">
-        <v>1.068115E-4</v>
+        <v>1.9311900000000001E-4</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103">
+      <c r="A103" s="1">
         <v>15100</v>
       </c>
       <c r="B103" s="2">
-        <v>1.149178E-4</v>
+        <v>3.9911269999999999E-4</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104">
+      <c r="A104" s="1">
         <v>15200</v>
       </c>
       <c r="B104" s="2">
-        <v>1.12772E-4</v>
+        <v>3.1590459999999998E-4</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105">
+      <c r="A105" s="1">
         <v>15300</v>
       </c>
       <c r="B105" s="2">
-        <v>1.139641E-4</v>
+        <v>1.9907949999999999E-4</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106">
+      <c r="A106" s="1">
         <v>15400</v>
       </c>
       <c r="B106" s="2">
-        <v>1.149178E-4</v>
+        <v>3.9386750000000001E-4</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A107">
+      <c r="A107" s="1">
         <v>15500</v>
       </c>
       <c r="B107" s="2">
-        <v>1.111031E-4</v>
+        <v>7.8320500000000003E-4</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108">
+      <c r="A108" s="1">
         <v>15600</v>
       </c>
       <c r="B108" s="2">
-        <v>1.1706349999999999E-4</v>
+        <v>3.85046E-4</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109">
+      <c r="A109" s="1">
         <v>15700</v>
       </c>
       <c r="B109" s="2">
-        <v>1.1706349999999999E-4</v>
+        <v>2.3913379999999999E-4</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110">
+      <c r="A110" s="1">
         <v>15800</v>
       </c>
       <c r="B110" s="2">
-        <v>1.177788E-4</v>
+        <v>3.6692620000000002E-4</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111">
+      <c r="A111" s="1">
         <v>15900</v>
       </c>
       <c r="B111" s="2">
-        <v>1.1801720000000001E-4</v>
+        <v>1.7309190000000001E-4</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112">
+      <c r="A112" s="1">
         <v>16000</v>
       </c>
       <c r="B112" s="2">
-        <v>1.671314E-4</v>
+        <v>1.471043E-4</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113">
+      <c r="A113" s="1">
         <v>16100</v>
       </c>
       <c r="B113" s="2">
-        <v>1.189709E-4</v>
+        <v>2.2482869999999999E-4</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A114">
+      <c r="A114" s="1">
         <v>16200</v>
       </c>
       <c r="B114" s="2">
-        <v>1.208782E-4</v>
+        <v>1.349449E-4</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115">
+      <c r="A115" s="1">
         <v>16300</v>
       </c>
       <c r="B115" s="2">
-        <v>2.1386150000000001E-4</v>
+        <v>2.1600720000000001E-4</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A116">
+      <c r="A116" s="1">
         <v>16400</v>
       </c>
       <c r="B116" s="2">
-        <v>2.6988979999999999E-4</v>
+        <v>2.379417E-4</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A117">
+      <c r="A117" s="1">
         <v>16500</v>
       </c>
       <c r="B117" s="2">
+        <v>2.100468E-4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" s="1">
+        <v>16600</v>
+      </c>
+      <c r="B118" s="2">
+        <v>1.3089180000000001E-4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" s="1">
+        <v>16700</v>
+      </c>
+      <c r="B119" s="2">
+        <v>1.3089180000000001E-4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" s="1">
+        <v>16800</v>
+      </c>
+      <c r="B120" s="2">
+        <v>1.320839E-4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" s="1">
+        <v>16900</v>
+      </c>
+      <c r="B121" s="2">
+        <v>2.0694729999999999E-4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" s="1">
+        <v>17000</v>
+      </c>
+      <c r="B122" s="2">
         <v>2.1100040000000001E-4</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A118">
-        <v>16600</v>
-      </c>
-      <c r="B118" s="2">
-        <v>1.2683869999999999E-4</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A119">
-        <v>16700</v>
-      </c>
-      <c r="B119" s="2">
-        <v>1.189709E-4</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A120">
-        <v>16800</v>
-      </c>
-      <c r="B120" s="2">
-        <v>1.301765E-4</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A121">
-        <v>16900</v>
-      </c>
-      <c r="B121" s="2">
-        <v>1.9097330000000001E-4</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A122">
-        <v>17000</v>
-      </c>
-      <c r="B122" s="2">
-        <v>1.9407269999999999E-4</v>
-      </c>
-    </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A123">
+      <c r="A123" s="1">
         <v>17100</v>
       </c>
       <c r="B123" s="2">
-        <v>1.2397769999999999E-4</v>
+        <v>1.3184549999999999E-4</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A124">
+      <c r="A124" s="1">
         <v>17200</v>
       </c>
       <c r="B124" s="2">
-        <v>1.211166E-4</v>
+        <v>1.270771E-4</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A125">
+      <c r="A125" s="1">
         <v>17300</v>
       </c>
       <c r="B125" s="2">
-        <v>1.2612340000000001E-4</v>
+        <v>1.3113019999999999E-4</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A126">
+      <c r="A126" s="1">
         <v>17400</v>
       </c>
       <c r="B126" s="2">
-        <v>1.3113019999999999E-4</v>
+        <v>1.3804440000000001E-4</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A127">
+      <c r="A127" s="1">
         <v>17500</v>
       </c>
       <c r="B127" s="2">
-        <v>2.000332E-4</v>
+        <v>2.100468E-4</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A128">
+      <c r="A128" s="1">
         <v>17600</v>
       </c>
       <c r="B128" s="2">
-        <v>2.0504E-4</v>
+        <v>2.9110909999999999E-4</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A129">
+      <c r="A129" s="1">
         <v>17700</v>
       </c>
       <c r="B129" s="2">
-        <v>1.270771E-4</v>
+        <v>2.3603440000000001E-4</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A130">
+      <c r="A130" s="1">
         <v>17800</v>
       </c>
       <c r="B130" s="2">
-        <v>1.3113019999999999E-4</v>
+        <v>2.1600720000000001E-4</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A131">
+      <c r="A131" s="1">
         <v>17900</v>
       </c>
       <c r="B131" s="2">
-        <v>1.399517E-4</v>
+        <v>2.369881E-4</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A132">
+      <c r="A132" s="1">
         <v>18000</v>
       </c>
       <c r="B132" s="2">
-        <v>2.3412699999999999E-4</v>
+        <v>7.7414509999999999E-4</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A133">
+      <c r="A133" s="1">
         <v>18100</v>
       </c>
       <c r="B133" s="2">
-        <v>2.0194049999999999E-4</v>
+        <v>4.8899649999999996E-4</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A134">
+      <c r="A134" s="1">
         <v>18200</v>
       </c>
       <c r="B134" s="2">
-        <v>1.2898449999999999E-4</v>
+        <v>2.400875E-4</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A135">
+      <c r="A135" s="1">
         <v>18300</v>
       </c>
       <c r="B135" s="2">
-        <v>1.3303760000000001E-4</v>
+        <v>3.1709670000000002E-4</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A136">
+      <c r="A136" s="1">
         <v>18400</v>
       </c>
       <c r="B136" s="2">
-        <v>1.349449E-4</v>
+        <v>1.9907949999999999E-4</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A137">
+      <c r="A137" s="1">
         <v>18500</v>
       </c>
       <c r="B137" s="2">
-        <v>2.307892E-4</v>
+        <v>4.0602679999999998E-4</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A138">
+      <c r="A138" s="1">
         <v>18600</v>
       </c>
       <c r="B138" s="2">
-        <v>2.0694729999999999E-4</v>
+        <v>8.2516670000000003E-4</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A139">
+      <c r="A139" s="1">
         <v>18700</v>
       </c>
       <c r="B139" s="2">
-        <v>1.3184549999999999E-4</v>
+        <v>6.0296060000000003E-4</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A140">
+      <c r="A140" s="1">
         <v>18800</v>
       </c>
       <c r="B140" s="2">
-        <v>2.0885470000000001E-4</v>
+        <v>3.3593179999999998E-4</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A141">
+      <c r="A141" s="1">
         <v>18900</v>
       </c>
       <c r="B141" s="2">
-        <v>2.229214E-4</v>
+        <v>2.758503E-4</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A142">
+      <c r="A142" s="1">
         <v>19000</v>
       </c>
       <c r="B142" s="2">
-        <v>2.949238E-4</v>
+        <v>4.5490260000000002E-4</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A143">
+      <c r="A143" s="1">
         <v>19100</v>
       </c>
       <c r="B143" s="2">
-        <v>2.6392940000000001E-4</v>
+        <v>3.2091139999999998E-4</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A144">
+      <c r="A144" s="1">
         <v>19200</v>
       </c>
       <c r="B144" s="2">
-        <v>1.5306470000000001E-4</v>
+        <v>6.3400269999999998E-3</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A145">
+      <c r="A145" s="1">
         <v>19300</v>
       </c>
       <c r="B145" s="2">
-        <v>1.5401839999999999E-4</v>
+        <v>4.1890139999999998E-4</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A146">
+      <c r="A146" s="1">
         <v>19400</v>
       </c>
       <c r="B146" s="2">
-        <v>1.649857E-4</v>
+        <v>3.5691260000000002E-4</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A147">
+      <c r="A147" s="1">
         <v>19500</v>
       </c>
       <c r="B147" s="2">
-        <v>2.8491019999999999E-4</v>
+        <v>5.0115589999999996E-4</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A148">
+      <c r="A148" s="1">
         <v>19600</v>
       </c>
       <c r="B148" s="2">
-        <v>2.6106829999999998E-4</v>
+        <v>5.1093099999999995E-4</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A149">
+      <c r="A149" s="1">
         <v>19700</v>
       </c>
       <c r="B149" s="2">
-        <v>2.7203559999999999E-4</v>
+        <v>9.0789790000000005E-4</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A150">
+      <c r="A150" s="1">
         <v>19800</v>
       </c>
       <c r="B150" s="2">
-        <v>3.2615660000000001E-4</v>
+        <v>9.9682809999999998E-4</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A151">
+      <c r="A151" s="1">
         <v>19900</v>
       </c>
       <c r="B151" s="2">
-        <v>2.250671E-4</v>
+        <v>5.8889390000000004E-4</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A152">
+      <c r="A152" s="1">
         <v>20000</v>
       </c>
       <c r="B152" s="2">
-        <v>5.7506560000000003E-4</v>
+        <v>5.0687789999999996E-4</v>
       </c>
     </row>
   </sheetData>
